--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -383,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,350 +484,351 @@
     <t>The position of the body when the observation was done, e.g. standing, sitting. To be used only when the body position in not precoordinated in the observation code.</t>
   </si>
   <si>
+    <t>Observation.extension:bodyPosition.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Observation.extension:bodyPosition.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-bodyPosition</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Observation.extension:bodyPosition.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/heightBodyPositionVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice</t>
+  </si>
+  <si>
+    <t>measurementDevice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {observation-deviceCode}
+</t>
+  </si>
+  <si>
+    <t>Measurement Device Type</t>
+  </si>
+  <si>
+    <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.id</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.value[x]</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/device-type</t>
+  </si>
+  <si>
+    <t>Observation.extension:measurementDevice.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/vitals/ValueSet/heightLengthMeasDeviceVS</t>
+  </si>
+  <si>
+    <t>Observation.extension:MeasurementSetting</t>
+  </si>
+  <si>
+    <t>MeasurementSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
+</t>
+  </si>
+  <si>
+    <t>Measurement setting</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category:VSCat.id</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-bodyPosition</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:bodyPosition.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/heightBodyPositionVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice</t>
-  </si>
-  <si>
-    <t>measurementDevice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {observation-deviceCode}
-</t>
-  </si>
-  <si>
-    <t>Measurement Device Type</t>
-  </si>
-  <si>
-    <t>A code representing the the type of device used for this observation.  Should only be used if not implicit in the code found in `Observation.code`.</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.id</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/observation-deviceCode</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.value[x]</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
-  </si>
-  <si>
-    <t>Observation.extension:measurementDevice.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/vitals/ValueSet/heightLengthMeasDeviceVS</t>
-  </si>
-  <si>
-    <t>Observation.extension:MeasurementSetting</t>
-  </si>
-  <si>
-    <t>MeasurementSetting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/vitals/StructureDefinition/MeasurementSettingExt}
-</t>
-  </si>
-  <si>
-    <t>Measurement setting</t>
-  </si>
-  <si>
-    <t>The location or setting the subject was in when the measurement was obtained. For example, home, clinic, hospital. etc.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category:VSCat.id</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
     <t>Observation.category:VSCat.extension</t>
   </si>
   <si>
@@ -1068,7 +1069,7 @@
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1193,7 +1194,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1216,7 +1217,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1272,7 +1273,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1315,7 +1316,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1549,7 +1550,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t>obs-6
@@ -1634,7 +1635,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1676,7 +1677,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1704,7 +1705,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1784,7 +1785,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1834,7 +1835,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1867,7 +1868,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1904,7 +1905,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -1926,7 +1927,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1|vitalsigns|4.0.1)
 </t>
   </si>
   <si>
@@ -2044,7 +2045,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2394,7 +2395,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3509,7 +3510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>145</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>144</v>
@@ -3631,10 +3632,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3657,13 +3658,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3714,31 +3715,31 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3749,10 +3750,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3823,7 +3824,7 @@
         <v>141</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
@@ -3832,7 +3833,7 @@
         <v>142</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3867,10 +3868,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3896,13 +3897,13 @@
         <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3910,49 +3911,49 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>93</v>
@@ -3987,10 +3988,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -4013,13 +4014,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4058,26 +4059,26 @@
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>105</v>
@@ -4106,7 +4107,7 @@
         <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>178</v>
@@ -4131,13 +4132,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4186,16 +4187,16 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>105</v>
@@ -4219,7 +4220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>181</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>144</v>
@@ -4344,7 +4345,7 @@
         <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4367,13 +4368,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4424,31 +4425,31 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4462,7 +4463,7 @@
         <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4533,7 +4534,7 @@
         <v>141</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
@@ -4542,7 +4543,7 @@
         <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4580,7 +4581,7 @@
         <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4606,13 +4607,13 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4662,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>93</v>
@@ -4700,7 +4701,7 @@
         <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4723,13 +4724,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4766,26 +4767,26 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>105</v>
@@ -4814,7 +4815,7 @@
         <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>178</v>
@@ -4839,13 +4840,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4894,16 +4895,16 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>105</v>
@@ -4927,7 +4928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>195</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -5023,7 +5024,7 @@
         <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>144</v>
@@ -5049,14 +5050,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -5078,16 +5079,16 @@
         <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -5136,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -5171,10 +5172,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5197,17 +5198,17 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -5256,7 +5257,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -5271,19 +5272,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -5291,14 +5292,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5317,17 +5318,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -5376,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5391,16 +5392,16 @@
         <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -5411,14 +5412,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5437,16 +5438,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5496,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5511,30 +5512,30 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AO26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5560,16 +5561,16 @@
         <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5594,11 +5595,11 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5616,7 +5617,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>93</v>
@@ -5631,19 +5632,19 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5651,10 +5652,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5677,19 +5678,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5717,16 +5718,16 @@
         <v>117</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
@@ -5736,7 +5737,7 @@
         <v>142</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5760,24 +5761,24 @@
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AP28" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
+      <c r="B29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -5799,19 +5800,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5839,11 +5840,11 @@
         <v>117</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5884,10 +5885,10 @@
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5895,10 +5896,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5921,13 +5922,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5978,31 +5979,31 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -6020,7 +6021,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -6048,7 +6049,7 @@
         <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6089,7 +6090,7 @@
         <v>141</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>20</v>
@@ -6098,7 +6099,7 @@
         <v>142</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -6122,7 +6123,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -6131,7 +6132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>264</v>
       </c>
@@ -6281,13 +6282,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6338,31 +6339,31 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6380,7 +6381,7 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6408,7 +6409,7 @@
         <v>263</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6449,7 +6450,7 @@
         <v>141</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
@@ -6458,7 +6459,7 @@
         <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6482,7 +6483,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6491,7 +6492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>278</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>290</v>
@@ -6733,7 +6734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>296</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>307</v>
@@ -7123,7 +7124,7 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>325</v>
@@ -7217,7 +7218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>332</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>334</v>
@@ -7367,13 +7368,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7424,31 +7425,31 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7466,7 +7467,7 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7494,7 +7495,7 @@
         <v>263</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7535,7 +7536,7 @@
         <v>141</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
@@ -7544,7 +7545,7 @@
         <v>142</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7568,7 +7569,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7849,13 +7850,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7906,31 +7907,31 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7948,7 +7949,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7976,7 +7977,7 @@
         <v>263</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8017,7 +8018,7 @@
         <v>141</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
@@ -8026,7 +8027,7 @@
         <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -8050,7 +8051,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -8209,7 +8210,7 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>290</v>
@@ -8449,7 +8450,7 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>307</v>
@@ -8691,7 +8692,7 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>325</v>
@@ -8785,7 +8786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>369</v>
       </c>
@@ -9149,7 +9150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>396</v>
       </c>
@@ -9588,14 +9589,14 @@
         <v>20</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>426</v>
@@ -9631,7 +9632,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>436</v>
       </c>
@@ -9783,13 +9784,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9840,31 +9841,31 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9882,7 +9883,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9910,7 +9911,7 @@
         <v>263</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9951,7 +9952,7 @@
         <v>141</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>20</v>
@@ -9960,7 +9961,7 @@
         <v>142</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9984,7 +9985,7 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9993,7 +9994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>442</v>
       </c>
@@ -10180,7 +10181,7 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y65" t="s" s="2">
         <v>458</v>
@@ -10237,7 +10238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>463</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>94</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>465</v>
@@ -10357,7 +10358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>471</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>480</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
@@ -10597,7 +10598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>488</v>
       </c>
@@ -10625,7 +10626,7 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>489</v>
@@ -10747,7 +10748,7 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>499</v>
@@ -10989,7 +10990,7 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>517</v>
@@ -11081,7 +11082,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>526</v>
       </c>
@@ -11109,7 +11110,7 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>527</v>
@@ -11591,13 +11592,13 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11648,31 +11649,31 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11690,7 +11691,7 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11718,7 +11719,7 @@
         <v>263</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11768,7 +11769,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11792,7 +11793,7 @@
         <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11838,10 +11839,10 @@
         <v>566</v>
       </c>
       <c r="N79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O79" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -12187,7 +12188,7 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>580</v>
@@ -12309,7 +12310,7 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>589</v>
@@ -12551,7 +12552,7 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>602</v>
@@ -12881,7 +12882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>618</v>
       </c>
@@ -13031,13 +13032,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -13088,31 +13089,31 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -13130,7 +13131,7 @@
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13158,7 +13159,7 @@
         <v>263</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13208,7 +13209,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13232,7 +13233,7 @@
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>20</v>
@@ -13278,10 +13279,10 @@
         <v>566</v>
       </c>
       <c r="N91" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O91" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -13363,7 +13364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>628</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>94</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>629</v>
@@ -13485,7 +13486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>634</v>
       </c>
@@ -13550,7 +13551,7 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="Y93" t="s" s="2">
         <v>639</v>
@@ -13607,7 +13608,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>643</v>
       </c>
@@ -13635,7 +13636,7 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>644</v>
@@ -13757,7 +13758,7 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>499</v>
@@ -13975,12 +13976,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP96">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.5.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-height.xlsx
+++ b/docs/StructureDefinition-height.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.5.5</t>
   </si>
   <si>
     <t>Name</t>
